--- a/pred_ohlcv/54_21/2020-01-20 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 HDAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>667232.1321000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>874561.7016000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>732252.7016000001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>727083.2529000002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>246448.1939000002</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>689678.1008000002</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>694559.1008000002</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>625520.2887000003</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>565820.5524000003</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>586343.6044000003</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>524727.8915000003</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>472468.9746000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>212973.8241000003</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>208674.5193000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>161516.3471212803</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-18859.45277871973</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-288288.6904787197</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-952098.6993875697</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1042630.92928757</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 HDAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>667232.1321000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>874561.7016000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>732252.7016000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>727083.2529000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>616366.8129000003</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>246448.1939000002</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>689678.1008000002</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>565820.5524000003</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>586343.6044000003</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>472468.9746000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>212973.8241000003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>208674.5193000002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>161516.3471212803</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-13266.65287871973</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-18859.45277871973</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-288288.6904787197</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1014261.63998757</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1042630.92928757</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
